--- a/testImages/WiFi_results.xlsx
+++ b/testImages/WiFi_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexknowlton/Desktop/cc/cc-project/testImages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2358DB61-17AA-DF43-B720-5C0116ACFA3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50EE6A60-C5B0-D348-B9C4-F90CF7982CF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{40F480F9-C8E7-3D46-9A01-0F6A06FA3686}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
   <si>
     <t>Emotion Detection</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>Emotion</t>
+  </si>
+  <si>
+    <t>Total Accuracy</t>
+  </si>
+  <si>
+    <t>Average Time</t>
+  </si>
+  <si>
+    <t>Std Time</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC78670C-30AD-2F4A-B59E-BC395BE17805}">
-  <dimension ref="C3:S23"/>
+  <dimension ref="C3:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1777,13 +1786,46 @@
         <v>3.8674790000000003</v>
       </c>
     </row>
+    <row r="27" spans="3:19">
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27">
+        <f>(Table6[[#Totals],[Emotion]]+H23+L23+P23)/4</f>
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19">
+      <c r="E28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28">
+        <f>(Table6[[#Totals],[Delta Time]]+K23+O23+S23)/4</f>
+        <v>2.5228945750000005</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19">
+      <c r="E29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29">
+        <f>_xlfn.STDEV.S(Table6[Delta Time],Table7[Delta Time],Table9[Delta Time],Table10[Delta Time])</f>
+        <v>1.6829874695184741</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:G11"/>
     <mergeCell ref="H10:K11"/>
     <mergeCell ref="L10:O11"/>
     <mergeCell ref="P10:S11"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="D3:I6"/>
     <mergeCell ref="E7:H7"/>
   </mergeCells>
